--- a/03-pandas/Data/mi_df_colores.xlsx
+++ b/03-pandas/Data/mi_df_colores.xlsx
@@ -419,6 +419,16 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:B4">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="percentile" val="10"/>
+        <cfvo type="percentile" val="99"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>